--- a/data/trans_camb/IP21-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,38</t>
+          <t>-4,77; 4,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 1,48</t>
+          <t>-6,96; 1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 8,55</t>
+          <t>-4,62; 8,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,06</t>
+          <t>-2,68; 3,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,53</t>
+          <t>-2,25; 6,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -0,65</t>
+          <t>-5,28; -0,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,09</t>
+          <t>-2,58; 3,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,53</t>
+          <t>-3,61; 2,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,08</t>
+          <t>-3,33; 3,79</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 283,49</t>
+          <t>-78,99; 348,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 656,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 206,71</t>
+          <t>-67,92; 239,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,91; 201,75</t>
+          <t>-85,58; 172,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 312,76</t>
+          <t>-100,0; 357,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,64</t>
+          <t>-2,91; 1,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,06</t>
+          <t>-4,31; 0,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -1,75</t>
+          <t>-5,66; -1,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,11</t>
+          <t>-1,3; 2,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,36</t>
+          <t>-3,55; 0,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -1,29</t>
+          <t>-4,64; -1,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,64</t>
+          <t>-1,59; 1,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,4</t>
+          <t>-3,29; -0,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -2,09</t>
+          <t>-4,61; -2,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,45; 41,3</t>
+          <t>-46,44; 46,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 2,36</t>
+          <t>-68,01; 2,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,45; -40,92</t>
+          <t>-85,75; -42,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 99,93</t>
+          <t>-25,73; 91,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 14,19</t>
+          <t>-66,62; 17,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,35; -36,39</t>
+          <t>-87,76; -38,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 42,13</t>
+          <t>-28,73; 38,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,69; -9,51</t>
+          <t>-59,43; -11,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,45; -49,81</t>
+          <t>-82,64; -52,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 5,26</t>
+          <t>-1,96; 4,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,3</t>
+          <t>-3,79; 2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,52</t>
+          <t>-4,91; 0,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,96</t>
+          <t>-4,29; 2,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,89</t>
+          <t>-2,82; 3,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,3</t>
+          <t>-4,59; 2,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,6</t>
+          <t>-2,4; 2,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,12</t>
+          <t>-2,52; 1,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,19</t>
+          <t>-3,82; 0,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 294,5</t>
+          <t>-43,56; 277,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,04; 152,51</t>
+          <t>-77,29; 145,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,74; 51,12</t>
+          <t>-91,81; 35,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-78,08; 112,58</t>
+          <t>-80,35; 105,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 185,09</t>
+          <t>-56,41; 165,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-85,59; 73,99</t>
+          <t>-80,67; 136,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 117,38</t>
+          <t>-48,98; 102,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,19; 94,49</t>
+          <t>-51,15; 78,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,66; 17,79</t>
+          <t>-78,43; 19,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,44</t>
+          <t>-1,84; 1,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,21</t>
+          <t>-3,37; -0,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -1,5</t>
+          <t>-4,59; -1,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,92</t>
+          <t>-1,29; 2,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,87</t>
+          <t>-2,22; 0,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,99</t>
+          <t>-3,68; -1,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,36</t>
+          <t>-1,15; 1,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; -0,12</t>
+          <t>-2,37; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -1,6</t>
+          <t>-3,78; -1,65</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 39,37</t>
+          <t>-34,64; 44,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -3,53</t>
+          <t>-61,7; -5,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,98; -36,45</t>
+          <t>-81,55; -38,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 67,99</t>
+          <t>-29,59; 67,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 29,85</t>
+          <t>-49,45; 29,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -30,0</t>
+          <t>-78,26; -30,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 40,1</t>
+          <t>-24,49; 35,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,93; -3,25</t>
+          <t>-49,38; -4,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,03; -44,2</t>
+          <t>-77,01; -46,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 4,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 6,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; -0,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; 4,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 2,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 7,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 3,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 2,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 3,89</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,74%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-82,08; 380,96</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,44; 233,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,82; 317,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 259,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-3,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,28</t>
+          <t>-1,24; 3,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,17</t>
+          <t>-3,55; 0,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,57</t>
+          <t>-4,63; -1,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,84</t>
+          <t>-2,99; 1,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 6,9</t>
+          <t>-4,48; -0,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -0,65</t>
+          <t>-5,76; -1,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,02</t>
+          <t>-1,6; 1,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,33</t>
+          <t>-3,27; -0,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,79</t>
+          <t>-4,74; -2,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-66,34%</t>
+          <t>-36,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,77%</t>
+          <t>-70,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>-12,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>-41,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-70,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>-39,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-38,16%</t>
+          <t>-70,84%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,99; 348,15</t>
+          <t>-26,39; 108,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,59; 10,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,56; -34,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-46,93; 42,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-66,75; 0,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,64; -42,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,92; 239,74</t>
+          <t>-28,68; 42,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 172,81</t>
+          <t>-60,51; -13,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 357,49</t>
+          <t>-82,8; -52,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,81</t>
+          <t>-4,22; 2,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,03</t>
+          <t>-2,71; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -1,86</t>
+          <t>-4,53; 1,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,89</t>
+          <t>-2,19; 5,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,32</t>
+          <t>-3,5; 2,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -1,28</t>
+          <t>-4,86; 0,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,52</t>
+          <t>-2,31; 2,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; -0,49</t>
+          <t>-2,4; 1,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -2,07</t>
+          <t>-3,69; 0,37</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,74%</t>
+          <t>-30,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,59%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-70,73%</t>
+          <t>-34,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-36,88%</t>
+          <t>-18,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-70,1%</t>
+          <t>-57,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-39,89%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-70,54%</t>
+          <t>-46,88%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,44; 46,57</t>
+          <t>-78,96; 112,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,01; 2,11</t>
+          <t>-50,7; 194,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,75; -42,43</t>
+          <t>-82,89; 117,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 91,68</t>
+          <t>-48,69; 294,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,62; 17,87</t>
+          <t>-70,43; 167,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,76; -38,11</t>
+          <t>-91,52; 82,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 38,85</t>
+          <t>-50,08; 93,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,43; -11,87</t>
+          <t>-50,75; 71,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,64; -52,95</t>
+          <t>-78,87; 18,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,78</t>
+          <t>-1,41; 1,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,28</t>
+          <t>-2,23; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,26</t>
+          <t>-3,74; -0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,25</t>
+          <t>-1,75; 1,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 3,88</t>
+          <t>-3,46; -0,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,05</t>
+          <t>-4,34; -1,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,47</t>
+          <t>-1,14; 1,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,92</t>
+          <t>-2,4; -0,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 0,33</t>
+          <t>-3,64; -1,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-59,18%</t>
+          <t>-62,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-30,98%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>-39,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-35,56%</t>
+          <t>-64,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>-30,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-47,86%</t>
+          <t>-63,57%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 277,4</t>
+          <t>-31,31; 65,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,29; 145,78</t>
+          <t>-48,44; 30,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,81; 35,86</t>
+          <t>-80,01; -27,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-80,35; 105,57</t>
+          <t>-32,68; 46,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,41; 165,07</t>
+          <t>-61,63; -3,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,67; 136,06</t>
+          <t>-80,83; -36,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 102,18</t>
+          <t>-24,21; 33,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 78,59</t>
+          <t>-49,78; -4,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,43; 19,72</t>
+          <t>-76,14; -44,23</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-2,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 1,68</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; -0,25</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; -1,6</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 2,0</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 0,79</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; -1,0</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 1,28</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; -0,17</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; -1,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-39,43%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-64,65%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-19,09%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-62,28%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-30,6%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-63,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-34,64; 44,41</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-61,7; -5,55</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-81,55; -38,88</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-29,59; 67,38</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-49,45; 29,07</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-78,26; -30,07</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-24,49; 35,85</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-49,38; -4,02</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-77,01; -46,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
